--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\miniGarden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11471B90-A365-4AFB-9EE8-BD5DFA454E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B47828-DA8B-44ED-ACC3-2A4DB5E4564C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B26A46FA-A533-4CDE-AA22-28B320C74292}"/>
+    <workbookView xWindow="2652" yWindow="0" windowWidth="11544" windowHeight="12240" firstSheet="1" activeTab="4" xr2:uid="{B26A46FA-A533-4CDE-AA22-28B320C74292}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="137">
   <si>
     <t>3aefd1e5-d8bf-4757-ab43-795dccd43aa0</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>", quantity:</t>
+  </si>
+  <si>
+    <t>, brand: "MiniGarden", name: "</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -515,7 +518,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3260,8 +3263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AF47C7-0124-4648-9D76-C2BDF1F27410}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3278,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
         <v>119</v>
@@ -3294,14 +3297,14 @@
       </c>
       <c r="H1">
         <f ca="1">RANDBETWEEN(50,99)</f>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
         <v>114</v>
       </c>
       <c r="J1" t="str">
-        <f>CONCATENATE(M11)</f>
-        <v/>
+        <f ca="1">CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1)</f>
+        <v>{ id:1, brand: "MiniGarden", name: "Hydroponics Primary Frame", description: "Basic frame for hydroponics set", quantity:66, createdAt: new Date(), updatedAt: new Date()},</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3312,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>120</v>
@@ -3328,10 +3331,14 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(50,499)</f>
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="I2" t="s">
         <v>114</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J7" ca="1" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2)</f>
+        <v>{ id:2, brand: "MiniGarden", name: "Thermometer DHT11a", description: "measure temperature", quantity:260, createdAt: new Date(), updatedAt: new Date()},</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3342,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
         <v>121</v>
@@ -3357,11 +3364,15 @@
         <v>135</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" ca="1" si="0">RANDBETWEEN(50,499)</f>
-        <v>60</v>
+        <f t="shared" ref="H3:H7" ca="1" si="1">RANDBETWEEN(50,499)</f>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
         <v>114</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{ id:3, brand: "MiniGarden", name: "Himid sensor DHT11b", description: "mearsure humidity", quantity:175, createdAt: new Date(), updatedAt: new Date()},</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3372,7 +3383,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
         <v>122</v>
@@ -3387,11 +3398,15 @@
         <v>135</v>
       </c>
       <c r="H4">
+        <f t="shared" ca="1" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="I4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
-      </c>
-      <c r="I4" t="s">
-        <v>114</v>
+        <v>{ id:4, brand: "MiniGarden", name: "Light sensor PDLS", description: "mearsure light level", quantity:438, createdAt: new Date(), updatedAt: new Date()},</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3402,7 +3417,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
@@ -3417,11 +3432,15 @@
         <v>135</v>
       </c>
       <c r="H5">
+        <f t="shared" ca="1" si="1"/>
+        <v>466</v>
+      </c>
+      <c r="I5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="I5" t="s">
-        <v>114</v>
+        <v>{ id:5, brand: "MiniGarden", name: "LED strip", description: "LED light", quantity:466, createdAt: new Date(), updatedAt: new Date()},</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3432,7 +3451,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
         <v>124</v>
@@ -3447,11 +3466,15 @@
         <v>135</v>
       </c>
       <c r="H6">
+        <f t="shared" ca="1" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="I6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>402</v>
-      </c>
-      <c r="I6" t="s">
-        <v>114</v>
+        <v>{ id:6, brand: "MiniGarden", name: "Square Fan 80mm", description: "Fan", quantity:312, createdAt: new Date(), updatedAt: new Date()},</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3462,7 +3485,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
         <v>125</v>
@@ -3477,14 +3500,19 @@
         <v>135</v>
       </c>
       <c r="H7">
+        <f t="shared" ca="1" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="I7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="I7" t="s">
-        <v>114</v>
+        <v>{ id:8, brand: "MiniGarden", name: "Water pump 12V", description: "Small water pump", quantity:375, createdAt: new Date(), updatedAt: new Date()},</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>